--- a/Webscraping with BeautifulSoup/Test.xlsx
+++ b/Webscraping with BeautifulSoup/Test.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="28680" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="SheetA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="SheetB" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SheetC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDEX" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="SheetA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SheetB" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SheetC" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SheetD" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="Index">#REF!</definedName>
+    <definedName name="Start2">SheetA!#REF!</definedName>
+    <definedName name="Start3">SheetB!#REF!</definedName>
+    <definedName name="Start4">SheetC!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -379,10 +386,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2">
+        <f>HYPERLINK("Test.xlsx#SheetA!A1", "SheetA")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <f>HYPERLINK("Test.xlsx#SheetB!A1", "SheetB")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <f>HYPERLINK("Test.xlsx#SheetC!A1", "SheetC")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <f>HYPERLINK("Test.xlsx#SheetD!A1", "SheetD")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Tabelle2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -391,6 +441,10 @@
       <c r="A1" t="n">
         <v>2</v>
       </c>
+      <c r="F1">
+        <f>HYPERLINK("Test.xlsx#INDEX!A1", "Back to INDEX")</f>
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -426,16 +480,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Tabelle3">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -456,6 +510,10 @@
           <t>d</t>
         </is>
       </c>
+      <c r="F1">
+        <f>HYPERLINK("Test.xlsx#INDEX!A1", "Back to INDEX")</f>
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -513,16 +571,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Tabelle4">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B2:B4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -539,6 +597,10 @@
       <c r="C1" t="n">
         <v>2</v>
       </c>
+      <c r="F1">
+        <f>HYPERLINK("Test.xlsx#INDEX!A1", "Back to INDEX")</f>
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -573,6 +635,31 @@
       </c>
       <c r="C4" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="F1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="F1">
+        <f>HYPERLINK("Test.xlsx#INDEX!A1", "Back to INDEX")</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Webscraping with BeautifulSoup/Test.xlsx
+++ b/Webscraping with BeautifulSoup/Test.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="DieseArbeitsmappe"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="28680" yWindow="-120"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="28680" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="SheetA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SheetB" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="SheetC" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SheetD" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SheetB" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SheetD" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="dsfsajflkdjsalkfjalskjflaksjf" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="jjsfaldjflaksjflkasjlkfjalskfjl" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Index">#REF!</definedName>
-    <definedName name="Start2">SheetA!#REF!</definedName>
+    <definedName name="Start2">dsfsajflkdjsalkfjalskjflaksjf!#REF!</definedName>
     <definedName name="Start3">SheetB!#REF!</definedName>
-    <definedName name="Start4">SheetC!#REF!</definedName>
+    <definedName name="Start4">jjsfaldjflaksjflkasjlkfjalskfjl!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -25,7 +25,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,8 +33,25 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -59,8 +76,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFCE1"/>
+        <bgColor rgb="FFFBFCE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBABAB6"/>
+        <bgColor rgb="FFBABAB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7FFCD"/>
+        <bgColor rgb="FFFFFBC7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fbfce1"/>
+        <bgColor rgb="00fbfce1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00babab6"/>
+        <bgColor rgb="00babab6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c7ffcd"/>
+        <bgColor rgb="00fffbc7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -68,15 +121,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="10" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Standard" xfId="0"/>
@@ -386,35 +487,51 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="31"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>INDEX</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2">
-        <f>HYPERLINK("Test.xlsx#SheetA!A1", "SheetA")</f>
-        <v/>
-      </c>
+      <c r="A2" s="10" t="n"/>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="11">
         <f>HYPERLINK("Test.xlsx#SheetB!A1", "SheetB")</f>
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <f>HYPERLINK("Test.xlsx#SheetC!A1", "SheetC")</f>
+      <c r="A4" s="11">
+        <f>HYPERLINK("Test.xlsx#SheetD!A1", "SheetD")</f>
         <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <f>HYPERLINK("Test.xlsx#SheetD!A1", "SheetD")</f>
+      <c r="A5" s="11">
+        <f>HYPERLINK("Test.xlsx#dsfsajflkdjsalkfjalskjflaksjf!A1", "dsfsajflkdjsalkfjalskjflaksjf")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11">
+        <f>HYPERLINK("Test.xlsx#jjsfaldjflaksjflkasjlkfjalskfjl!A1", "jjsfaldjflaksjflkasjlkfjalskfjl")</f>
         <v/>
       </c>
     </row>
@@ -424,6 +541,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Tabelle3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="F1">
+        <f>HYPERLINK("Test.xlsx#INDEX!A1", "Back to INDEX")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="F1" pane="bottomRight" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row customHeight="1" ht="18.75" r="1">
+      <c r="A1" s="4" t="n"/>
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="5" t="n"/>
+      <c r="F1" s="5">
+        <f>HYPERLINK("Test.xlsx#INDEX!A1", "Back to INDEX")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
+      <c r="F2" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Tabelle2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -480,98 +729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Tabelle3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="F1">
-        <f>HYPERLINK("Test.xlsx#INDEX!A1", "Back to INDEX")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Tabelle4">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -579,8 +737,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -640,29 +798,4 @@
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="F1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="F1">
-        <f>HYPERLINK("Test.xlsx#INDEX!A1", "Back to INDEX")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
-</worksheet>
 </file>